--- a/CRMAutomationMaven/Test Data/Driver.xlsx
+++ b/CRMAutomationMaven/Test Data/Driver.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Execute</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>C:\Selenium Programs\CRMAutomationMaven\result\Contacts_23-01-2017-12-17-58.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Accounts_28-01-2017-07-43-16.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Contacts_28-01-2017-07-45-28.xlsx</t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -474,7 +480,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/CRMAutomationMaven/Test Data/Driver.xlsx
+++ b/CRMAutomationMaven/Test Data/Driver.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Execute</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Contacts_28-01-2017-07-45-28.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Accounts_28-01-2017-09-47-57.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Contacts_28-01-2017-09-49-32.xlsx</t>
   </si>
 </sst>
 </file>
@@ -465,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -480,7 +486,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/CRMAutomationMaven/Test Data/Driver.xlsx
+++ b/CRMAutomationMaven/Test Data/Driver.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium Programs\CRMAutomationMaven\Test Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="2925" windowWidth="12825" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12825" windowHeight="2925"/>
   </bookViews>
   <sheets>
-    <sheet name="Driver" r:id="rId1" sheetId="1"/>
+    <sheet name="Driver" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Execute</t>
   </si>
@@ -53,39 +48,23 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>C:\Selenium Programs\CRMAutomationMaven\result\Accounts_12-01-2017-13-54-47.xlsx</t>
-  </si>
-  <si>
     <t>Pass but few test cases were not executed</t>
   </si>
   <si>
-    <t>C:\Selenium Programs\CRMAutomationMaven\result\Contacts_12-01-2017-13-56-44.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Selenium Programs\CRMAutomationMaven\result\Accounts_23-01-2017-12-16-31.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Selenium Programs\CRMAutomationMaven\result\Contacts_23-01-2017-12-17-58.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Accounts_28-01-2017-07-43-16.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Contacts_28-01-2017-07-45-28.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Accounts_28-01-2017-09-47-57.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Contacts_28-01-2017-09-49-32.xlsx</t>
+    <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Accounts_10-02-2017-07-32-27.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Contacts_10-02-2017-07-34-01.xlsx</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,18 +120,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -169,10 +148,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -207,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,7 +221,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,21 +315,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -367,7 +346,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -419,30 +398,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="39.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="76.28515625" collapsed="true"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="76.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,9 +438,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -471,10 +450,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -483,14 +462,14 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CRMAutomationMaven/Test Data/Driver.xlsx
+++ b/CRMAutomationMaven/Test Data/Driver.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12825" windowHeight="2925"/>
+    <workbookView windowHeight="2925" windowWidth="12825" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Driver" sheetId="1" r:id="rId1"/>
+    <sheet name="Driver" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Execute</t>
   </si>
@@ -58,12 +58,16 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Contacts_10-02-2017-07-50-57.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -120,18 +124,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -148,10 +152,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -315,21 +319,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -346,7 +350,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -398,7 +402,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -406,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -414,11 +418,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="76.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="76.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -465,11 +469,11 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CRMAutomationMaven/Test Data/Driver.xlsx
+++ b/CRMAutomationMaven/Test Data/Driver.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Execute</t>
   </si>
@@ -48,19 +48,13 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Pass but few test cases were not executed</t>
-  </si>
-  <si>
-    <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Accounts_10-02-2017-07-32-27.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Contacts_10-02-2017-07-34-01.xlsx</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Contacts_10-02-2017-07-50-57.xlsx</t>
+    <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Accounts_10-02-2017-11-17-15.xlsx</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Contacts_10-02-2017-11-19-40.xlsx</t>
   </si>
 </sst>
 </file>
@@ -444,7 +438,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -454,7 +448,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -466,10 +460,10 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/CRMAutomationMaven/Test Data/Driver.xlsx
+++ b/CRMAutomationMaven/Test Data/Driver.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Execute</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Contacts_10-02-2017-11-19-40.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Accounts_03-03-2017-12-22-17.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Contacts_03-03-2017-12-23-52.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Accounts_03-03-2017-12-59-50.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\admin\Selenium Programs GitHub\CRMAutomationMaven\result\Contacts_03-03-2017-13-01-44.xlsx</t>
   </si>
 </sst>
 </file>
@@ -448,7 +460,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -463,7 +475,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
